--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\開発実習\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448A1BD-EEAB-4514-BA28-B4C6F8F6B89E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B67801-609D-496C-8E9D-92EACC806832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1275" windowWidth="13170" windowHeight="10275" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -451,6 +451,243 @@
   </si>
   <si>
     <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Item.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Diary.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recommends.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Season.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemSeason.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Color.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemColor.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parts.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weather.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiaryDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RecommendsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SeasonDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemSeasonDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ColorDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemColorDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PartsDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WeatherDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
+  </si>
+  <si>
+    <t>login.js</t>
+  </si>
+  <si>
+    <t>login.css</t>
+  </si>
+  <si>
+    <t>headerFooter.jsp</t>
+  </si>
+  <si>
+    <t>headerFooter.css</t>
+  </si>
+  <si>
+    <t>userRegist.jsp</t>
+  </si>
+  <si>
+    <t>userRegist.js</t>
+  </si>
+  <si>
+    <t>userRegist.css</t>
+  </si>
+  <si>
+    <t>home.jsp</t>
+  </si>
+  <si>
+    <t>home.js</t>
+  </si>
+  <si>
+    <t>diary.jsp</t>
+  </si>
+  <si>
+    <t>diary.js</t>
+  </si>
+  <si>
+    <t>diary.css</t>
+  </si>
+  <si>
+    <t>DiaryServlet.java</t>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+  </si>
+  <si>
+    <t>ItemDAO.java</t>
+  </si>
+  <si>
+    <t>diaryEdit.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diaryEdit.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>diaryEdit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DiaryEditServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRegist.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemRegist.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemRegist.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemSearch.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemSearch.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemSearch.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemUpdate.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemUpdate.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserRegistServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HomeServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白土</t>
+  </si>
+  <si>
+    <t>白土</t>
+    <rPh sb="0" eb="2">
+      <t>シラト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白土</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉山</t>
+    <rPh sb="0" eb="2">
+      <t>スギヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濵﨑</t>
+    <rPh sb="0" eb="2">
+      <t>ハマサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -518,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,6 +766,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -847,15 +1096,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
@@ -891,11 +1140,15 @@
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -908,11 +1161,15 @@
       <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -925,11 +1182,15 @@
       <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -942,11 +1203,15 @@
       <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -959,11 +1224,15 @@
       <c r="D7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -976,11 +1245,15 @@
       <c r="D8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -993,11 +1266,15 @@
       <c r="D9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1010,11 +1287,15 @@
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1027,11 +1308,15 @@
       <c r="D11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1044,11 +1329,15 @@
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1061,11 +1350,15 @@
       <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1078,11 +1371,15 @@
       <c r="D14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1095,11 +1392,15 @@
       <c r="D15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1112,11 +1413,15 @@
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1129,11 +1434,15 @@
       <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1146,11 +1455,15 @@
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1163,11 +1476,15 @@
       <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1180,11 +1497,15 @@
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1197,11 +1518,15 @@
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1214,11 +1539,15 @@
       <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1231,11 +1560,15 @@
       <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1248,11 +1581,15 @@
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1265,11 +1602,15 @@
       <c r="D25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1282,11 +1623,15 @@
       <c r="D26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1299,11 +1644,15 @@
       <c r="D27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1316,11 +1665,15 @@
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1333,11 +1686,15 @@
       <c r="D29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1350,11 +1707,15 @@
       <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1367,11 +1728,15 @@
       <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1384,11 +1749,15 @@
       <c r="D32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1401,11 +1770,15 @@
       <c r="D33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="F33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1418,11 +1791,15 @@
       <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1435,11 +1812,15 @@
       <c r="D35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="F35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="6" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1452,11 +1833,15 @@
       <c r="D36" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1469,11 +1854,15 @@
       <c r="D37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="6" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -1486,11 +1875,15 @@
       <c r="D38" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -1503,11 +1896,15 @@
       <c r="D39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -1520,11 +1917,15 @@
       <c r="D40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="F40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -1537,11 +1938,15 @@
       <c r="D41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -1554,11 +1959,15 @@
       <c r="D42" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="F42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -1571,11 +1980,15 @@
       <c r="D43" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="6" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -1588,11 +2001,15 @@
       <c r="D44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -1605,11 +2022,15 @@
       <c r="D45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
@@ -1622,11 +2043,15 @@
       <c r="D46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1">
@@ -1639,11 +2064,15 @@
       <c r="D47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="F47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -1656,11 +2085,15 @@
       <c r="D48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="F48" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="1">
@@ -1673,11 +2106,15 @@
       <c r="D49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="1">
@@ -1690,11 +2127,15 @@
       <c r="D50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="1">
@@ -1707,11 +2148,15 @@
       <c r="D51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="1">
@@ -1724,11 +2169,15 @@
       <c r="D52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="1">
@@ -1741,11 +2190,15 @@
       <c r="D53" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="F53" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="1">
@@ -1758,11 +2211,15 @@
       <c r="D54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="6" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
@@ -2596,9 +3053,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2773,27 +3233,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2818,9 +3266,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B67801-609D-496C-8E9D-92EACC806832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3CC281-9263-4F83-AA54-4C9C294D944E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="129">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム登録servlet</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム検索jsp</t>
     <rPh sb="4" eb="6">
       <t>ケンサク</t>
@@ -273,13 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム更新削除servlet</t>
-    <rPh sb="4" eb="8">
-      <t>コウシンサクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム登録・更新削除css</t>
     <rPh sb="7" eb="11">
       <t>コウシンサクジョ</t>
@@ -526,9 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login.jsp</t>
-  </si>
-  <si>
     <t>login.js</t>
   </si>
   <si>
@@ -602,10 +588,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ItemRegistServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>itemSearch.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,10 +597,6 @@
   </si>
   <si>
     <t>itemSearch.css</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemUpdateServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -688,6 +666,40 @@
     <rPh sb="0" eb="2">
       <t>ヤマダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemRegistUpdateServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム登録更新削除servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面用のjs</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面用のcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1094,17 +1106,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G129"/>
+  <dimension ref="B2:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
@@ -1135,40 +1147,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1180,16 +1192,16 @@
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1201,16 +1213,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1222,16 +1234,16 @@
         <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1243,16 +1255,16 @@
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1264,16 +1276,16 @@
         <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1285,16 +1297,16 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1306,16 +1318,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1324,19 +1336,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1348,16 +1360,16 @@
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1369,16 +1381,16 @@
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1390,16 +1402,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1408,19 +1420,19 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1432,16 +1444,16 @@
         <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1453,16 +1465,16 @@
         <v>29</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1474,16 +1486,16 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1492,19 +1504,19 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1516,16 +1528,16 @@
         <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1537,16 +1549,16 @@
         <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1558,16 +1570,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1576,19 +1588,19 @@
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1600,16 +1612,16 @@
         <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1621,16 +1633,16 @@
         <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1642,16 +1654,16 @@
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1660,19 +1672,19 @@
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1684,16 +1696,16 @@
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1705,16 +1717,16 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1726,16 +1738,16 @@
         <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1744,19 +1756,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1765,19 +1777,19 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>122</v>
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1786,19 +1798,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1807,19 +1819,19 @@
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1828,19 +1840,19 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1849,19 +1861,19 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1870,19 +1882,19 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1891,19 +1903,19 @@
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1912,19 +1924,19 @@
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1933,19 +1945,19 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1954,19 +1966,19 @@
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1975,19 +1987,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1996,19 +2008,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -2017,19 +2029,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>126</v>
+        <v>50</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -2038,19 +2050,19 @@
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.4">
@@ -2059,19 +2071,19 @@
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
@@ -2080,19 +2092,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2101,19 +2113,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2122,19 +2134,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2143,19 +2155,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2164,19 +2176,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2185,19 +2197,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2205,31 +2217,37 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
+      <c r="C55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2355,7 +2373,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B67:B128" si="1">ROW()-2</f>
         <v>65</v>
       </c>
       <c r="C67" s="1"/>
@@ -2366,7 +2384,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B129" si="1">ROW()-2</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="C68" s="1"/>
@@ -3034,17 +3052,6 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="1"/>
-    </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B129" s="1">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/05_ファイル構成一覧表_チーム名.xlsx
+++ b/doc/05_ファイル構成一覧表_チーム名.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3CC281-9263-4F83-AA54-4C9C294D944E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CD6946-22EC-46DC-A1FA-30462383FCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="131">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -700,6 +700,17 @@
   </si>
   <si>
     <t>login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemSearchServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索servlet</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1106,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G128"/>
+  <dimension ref="B2:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1164,7 +1175,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B66" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B67" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1688,21 +1699,20 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
+      <c r="B29" s="6">
         <v>27</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>61</v>
+      <c r="C29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>118</v>
@@ -1714,16 +1724,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>118</v>
@@ -1735,18 +1745,18 @@
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1756,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>117</v>
+        <v>35</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1777,18 +1787,18 @@
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1798,19 +1808,19 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>119</v>
+        <v>38</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1825,13 +1835,13 @@
         <v>64</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1845,14 +1855,14 @@
       <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>76</v>
+      <c r="E36" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1867,13 +1877,13 @@
         <v>64</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1888,13 +1898,13 @@
         <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1909,10 +1919,10 @@
         <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>118</v>
@@ -1930,10 +1940,10 @@
         <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>118</v>
@@ -1951,13 +1961,13 @@
         <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1972,10 +1982,10 @@
         <v>64</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>117</v>
@@ -1993,13 +2003,13 @@
         <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -2011,15 +2021,15 @@
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2035,12 +2045,12 @@
         <v>65</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2056,10 +2066,10 @@
         <v>65</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>121</v>
@@ -2077,10 +2087,10 @@
         <v>65</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>121</v>
@@ -2098,10 +2108,10 @@
         <v>65</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>121</v>
@@ -2119,10 +2129,10 @@
         <v>65</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>121</v>
@@ -2140,10 +2150,10 @@
         <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>121</v>
@@ -2161,10 +2171,10 @@
         <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>121</v>
@@ -2182,10 +2192,10 @@
         <v>65</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>121</v>
@@ -2203,10 +2213,10 @@
         <v>65</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>121</v>
@@ -2217,19 +2227,21 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>62</v>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G54" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="1">
@@ -2237,16 +2249,16 @@
         <v>53</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G55" s="1"/>
     </row>
@@ -2255,10 +2267,18 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+      <c r="C56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2373,7 +2393,7 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B128" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="C67" s="1"/>
@@ -2384,7 +2404,7 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B68:B129" si="1">ROW()-2</f>
         <v>66</v>
       </c>
       <c r="C68" s="1"/>
@@ -3052,6 +3072,17 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B129" s="1">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3060,15 +3091,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3239,6 +3261,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3246,14 +3277,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3268,6 +3291,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
